--- a/day2/wykres2.xlsx
+++ b/day2/wykres2.xlsx
@@ -253,6 +253,7 @@
     </plotArea>
     <legend>
       <legendPos val="r"/>
+      <overlay val="0"/>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -269,7 +270,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="10800000" cy="5400000"/>
+    <ext cx="7200000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
